--- a/biology/Botanique/Bon-chrétien/Bon-chrétien.xlsx
+++ b/biology/Botanique/Bon-chrétien/Bon-chrétien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bon-chr%C3%A9tien</t>
+          <t>Bon-chrétien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bon-chrétien (masculin) ou, de façon manifestement désuète, une poire de bon-chrétien est le nom donné à différentes variétés de grosses poires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bon-chr%C3%A9tien</t>
+          <t>Bon-chrétien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pluriel
-Le pluriel de « un bon-chrétien » est « des bons-chrétiens » ou, de façon manifestement désuète, « des bon-chrétien ». Le pluriel de « poire de bon-chrétien » est classiquement « des poires de bon-chrétien »[1].
-Étymologie
-Il s’agit peut-être de l’adaptation au XVe siècle du latin médiéval « poma panchresta », « fruit utile à tout », du grec pankhrêstos, « utile à tout ».
+          <t>Pluriel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pluriel de « un bon-chrétien » est « des bons-chrétiens » ou, de façon manifestement désuète, « des bon-chrétien ». Le pluriel de « poire de bon-chrétien » est classiquement « des poires de bon-chrétien ».
 </t>
         </is>
       </c>
@@ -527,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bon-chr%C3%A9tien</t>
+          <t>Bon-chrétien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Orthographe et étymologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit peut-être de l’adaptation au XVe siècle du latin médiéval « poma panchresta », « fruit utile à tout », du grec pankhrêstos, « utile à tout ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bon-chrétien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bon-chr%C3%A9tien</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On trouve dans ce groupe de nombreuses variétés telles que :
 Bon-chrétien Bonnamour ;
